--- a/MainTop/17.06.2025 свой склад ВБ Макс/макс_sorted_sorted_sorted.xlsx
+++ b/MainTop/17.06.2025 свой склад ВБ Макс/макс_sorted_sorted_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.06.2025 свой склад ВБ Макс\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA19F4D0-DE19-4A1F-BC83-2F2B9D48E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04710DC0-1E44-45D2-B62B-BEAD76ECBA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,10 +552,13 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
